--- a/Income/PSX_inc.xlsx
+++ b/Income/PSX_inc.xlsx
@@ -246,7 +246,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>65421000000.0</v>
+        <v>65121000000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>63693000000.0</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2413000000.0</v>
+        <v>2113000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>180000000.0</v>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-3537000000.0</v>
+        <v>-3822000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>-5644000000.0</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2103000000.0</v>
+        <v>2388000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>4130000000.0</v>
@@ -1957,10 +1957,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.0369</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.0028</v>
@@ -2085,10 +2083,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-0.0541</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-0.0886</v>
@@ -2213,10 +2209,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-0.0498</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-0.0779</v>
@@ -2341,10 +2335,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>-0.0327</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-0.0625</v>
@@ -2469,10 +2461,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-0.0025</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-0.0127</v>
@@ -2595,10 +2585,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>-460000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-411000000.0</v>
@@ -2724,7 +2712,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-3537000000.0</v>
+        <v>-3822000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>-5644000000.0</v>
@@ -4073,10 +4061,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>-0.0065</v>
@@ -4201,10 +4187,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>0.0331</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.0331</v>
